--- a/add_political_party.xlsx
+++ b/add_political_party.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulineyue/Desktop/5YMIDS/203-Stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA427058-A4E9-D34D-A0CD-9A9E435FF0C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C476DB-FF2C-AC45-A231-A33C7D9260C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26020" windowHeight="13540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="95">
   <si>
     <t>Variables</t>
   </si>
@@ -1670,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A0C22F-99C9-4ECF-A142-1CF4E60FA6D9}">
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2560,6 +2560,9 @@
       <c r="Y11">
         <v>0.12</v>
       </c>
+      <c r="Z11" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
